--- a/Data/ChildCareExperiencesCC.xlsx
+++ b/Data/ChildCareExperiencesCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgtHscXW1KflxK9D/GJOiW0UKuLPQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -56,7 +56,7 @@
     <t>What would you need to be able to meet the needs of all children in your care?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>What is currently helping you to provide quality care?</t>

--- a/Data/ChildCareExperiencesCC.xlsx
+++ b/Data/ChildCareExperiencesCC.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="k4URt+Q9UBfygCxTCpX55PQN5T3ywRtofDk/uIk8Sp8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -44,7 +44,7 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022</t>
+    <t>11/09/2022-11/16/2022 05/03/2023-05/10/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Are you able to meet the needs of children with behavioral challenges? </t>
@@ -85,6 +85,20 @@
 • Access to professional services    
 • Smaller classes   
 • Other, please specify</t>
+  </si>
+  <si>
+    <t>11/09/2022-11/16/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• More planning time
+• More break time 
+• Access to health benefits
+• Access to professional services 
+• Smaller classes
+• Not listed, please specify </t>
+  </si>
+  <si>
+    <t>05/03/2023-05/10/2023</t>
   </si>
   <si>
     <t xml:space="preserve">What would help you feel more supported by parents? </t>
@@ -729,7 +743,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -755,15 +769,15 @@
     </row>
     <row r="10" ht="153.0" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -787,15 +801,15 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="102.0" customHeight="1">
+    <row r="11" ht="153.0" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
@@ -821,12 +835,12 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="169.5" customHeight="1">
+    <row r="12" ht="102.0" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="7"/>
@@ -855,12 +869,18 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1"/>
+    <row r="13" ht="169.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -911,8 +931,8 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="102.0" customHeight="1">
-      <c r="A15" s="9"/>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="7"/>
@@ -939,12 +959,12 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+    <row r="16" ht="102.0" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1024,7 +1044,7 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -1052,11 +1072,11 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -28519,6 +28539,34 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Data/ChildCareExperiencesCC.xlsx
+++ b/Data/ChildCareExperiencesCC.xlsx
@@ -53,7 +53,8 @@
     <t xml:space="preserve">Are you able to meet the needs of children with disabilities? </t>
   </si>
   <si>
-    <t>What would you need to be able to meet the needs of all children in your care?</t>
+    <t>[Display this question if "Are you able to meet the needs of all children in your care?" does not = Always OR Not applicable OR "Are you able to meet the needs of children with behavioral challenges?" does not = Always OR Not applicable OR "Are you able to meet the needs of children with disabilities? " does not = Always OR Not applicable]
+What would you need to be able to meet the needs of all children in your care?</t>
   </si>
   <si>
     <t>Open ended response</t>
@@ -76,7 +77,8 @@
     <t xml:space="preserve">How well-supported do you feel by administrators? </t>
   </si>
   <si>
-    <t>What would help you to feel more supported by administrators? Select all that apply.</t>
+    <t>[Display this question if "How well-supported do you feel by administrators?" does not = I feel very supported OR Not applicable]
+What would help you to feel more supported by administrators? Select all that apply.</t>
   </si>
   <si>
     <t>• More planning time   
@@ -101,7 +103,8 @@
     <t>05/03/2023-05/10/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">What would help you feel more supported by parents? </t>
+    <t xml:space="preserve">[Display this question if "How well-supported do you feel by administrators?" does not = I feel very supported]
+What would help you feel more supported by parents? </t>
   </si>
   <si>
     <t xml:space="preserve">Are you able to take breaks when you need them? </t>
